--- a/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>156573</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137331</v>
+        <v>135622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>177995</v>
+        <v>178146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2759197413733992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2420105199295797</v>
+        <v>0.2389988538745195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3136704003278789</v>
+        <v>0.3139369767311525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>271</v>
@@ -762,19 +762,19 @@
         <v>170065</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>153245</v>
+        <v>150404</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>191210</v>
+        <v>188833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2113535156290897</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1904501348647159</v>
+        <v>0.186918813763765</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2376320772142274</v>
+        <v>0.234677277087648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>439</v>
@@ -783,19 +783,19 @@
         <v>326638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>297925</v>
+        <v>296722</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354065</v>
+        <v>355265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.238055973410382</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2171298244646147</v>
+        <v>0.2162532204371172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2580445753927026</v>
+        <v>0.2589194877255461</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>272403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250016</v>
+        <v>250298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293834</v>
+        <v>296426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4800406389557139</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4405886791659535</v>
+        <v>0.4410860959290644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5178075458601226</v>
+        <v>0.5223751990168527</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>684</v>
@@ -833,19 +833,19 @@
         <v>392143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>370411</v>
+        <v>369967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>415333</v>
+        <v>414711</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4873467906106743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4603397149564158</v>
+        <v>0.4597872297300878</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5161678629725975</v>
+        <v>0.5153939777052164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1016</v>
@@ -854,19 +854,19 @@
         <v>664546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>633239</v>
+        <v>633531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>693526</v>
+        <v>697607</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.484325207672206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4615091190581063</v>
+        <v>0.4617216771137673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5054463263244598</v>
+        <v>0.5084206432369942</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>113201</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96606</v>
+        <v>97747</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129803</v>
+        <v>131948</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1994881655645557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.170243908536436</v>
+        <v>0.1722533569326048</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2287442360989134</v>
+        <v>0.232523825885674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>357</v>
@@ -904,19 +904,19 @@
         <v>197900</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179085</v>
+        <v>179745</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216981</v>
+        <v>219133</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2459455747198796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2225633938500753</v>
+        <v>0.2233838124482088</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2696589381120785</v>
+        <v>0.2723341579266881</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>508</v>
@@ -925,19 +925,19 @@
         <v>311101</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>287062</v>
+        <v>286263</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>334945</v>
+        <v>337303</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2267323251873623</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2092125962853367</v>
+        <v>0.2086301332936221</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2441098076109144</v>
+        <v>0.2458290037446771</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>25281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17562</v>
+        <v>17068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35728</v>
+        <v>36663</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0445514541063312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03094782843066352</v>
+        <v>0.03007841209315661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06296139274655199</v>
+        <v>0.06460976756291426</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -975,19 +975,19 @@
         <v>44541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35484</v>
+        <v>35216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55603</v>
+        <v>54993</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05535411904035631</v>
+        <v>0.0553541190403563</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04409845937806912</v>
+        <v>0.04376536333070663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06910243156345905</v>
+        <v>0.06834451909247065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -996,19 +996,19 @@
         <v>69822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58384</v>
+        <v>57268</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83292</v>
+        <v>83674</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05088649373004962</v>
+        <v>0.05088649373004963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04255029687812095</v>
+        <v>0.0417370262104358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06070340125173217</v>
+        <v>0.06098249999926773</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>1029712</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>978159</v>
+        <v>975960</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1086392</v>
+        <v>1083523</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4633844990913263</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4401850633669631</v>
+        <v>0.4391954435553835</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4888914469423796</v>
+        <v>0.4876004007705487</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>986</v>
@@ -1121,19 +1121,19 @@
         <v>836313</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>791116</v>
+        <v>789682</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>877362</v>
+        <v>880430</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3870051614336317</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3660904463091946</v>
+        <v>0.3654268000681668</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4060007974276001</v>
+        <v>0.4074205509382583</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1790</v>
@@ -1142,19 +1142,19 @@
         <v>1866024</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1795117</v>
+        <v>1799800</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1942965</v>
+        <v>1933268</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.42572778130584</v>
+        <v>0.4257277813058399</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4095505302529636</v>
+        <v>0.4106189790680141</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4432816237064742</v>
+        <v>0.4410692616779635</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>913073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>858554</v>
+        <v>868083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>965442</v>
+        <v>969322</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4108956449650758</v>
+        <v>0.4108956449650757</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3863613202494372</v>
+        <v>0.3906494268483628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4344621380761924</v>
+        <v>0.436208280230226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1389</v>
@@ -1192,19 +1192,19 @@
         <v>986018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>942050</v>
+        <v>945603</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1029236</v>
+        <v>1030831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4562815666753379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4359351150547945</v>
+        <v>0.4375794934660261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4762807105197128</v>
+        <v>0.4770188843918111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2267</v>
@@ -1213,19 +1213,19 @@
         <v>1899091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1828430</v>
+        <v>1836909</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1970203</v>
+        <v>1964110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4332719171047614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4171507402959179</v>
+        <v>0.4190852353447527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4494957627296867</v>
+        <v>0.4481056742201827</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>240236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>213464</v>
+        <v>210762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>273650</v>
+        <v>271450</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.108109383356352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09606179399105193</v>
+        <v>0.09484596935703922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1231463691519667</v>
+        <v>0.1221562383603855</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>454</v>
@@ -1263,19 +1263,19 @@
         <v>281638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>258527</v>
+        <v>256166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313160</v>
+        <v>310805</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1303286440262128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1196336863175533</v>
+        <v>0.1185411643488119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1449152289041672</v>
+        <v>0.1438255623678619</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>716</v>
@@ -1284,19 +1284,19 @@
         <v>521874</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>480273</v>
+        <v>483869</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>562679</v>
+        <v>562535</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1190639746647621</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1095729248956153</v>
+        <v>0.1103933016691029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1283734115467483</v>
+        <v>0.128340710149998</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>39133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28767</v>
+        <v>29056</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55618</v>
+        <v>55169</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01761047258724606</v>
+        <v>0.01761047258724605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01294550452449683</v>
+        <v>0.01307542346231211</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02502905764186034</v>
+        <v>0.02482701434240724</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>78</v>
@@ -1334,19 +1334,19 @@
         <v>57017</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46377</v>
+        <v>46100</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72551</v>
+        <v>71581</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02638462786481756</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02146100408012169</v>
+        <v>0.02133269741548998</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03357288514923245</v>
+        <v>0.03312405231510968</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -1355,19 +1355,19 @@
         <v>96150</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79906</v>
+        <v>77690</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>114597</v>
+        <v>115188</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02193632692463647</v>
+        <v>0.02193632692463646</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01823041717656186</v>
+        <v>0.01772474231340649</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02614491638221247</v>
+        <v>0.02627984219872565</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>322698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>293286</v>
+        <v>292767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349843</v>
+        <v>351141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4538737594049824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4125061496386371</v>
+        <v>0.411775746889574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4920532640921438</v>
+        <v>0.4938790218904258</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -1480,19 +1480,19 @@
         <v>323235</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>297252</v>
+        <v>300317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348208</v>
+        <v>350022</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4414411771687211</v>
+        <v>0.441441177168721</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4059565487343538</v>
+        <v>0.4101420253200446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4755460433440121</v>
+        <v>0.4780241995092205</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>693</v>
@@ -1501,19 +1501,19 @@
         <v>645933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>610138</v>
+        <v>608954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>684468</v>
+        <v>688286</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4475659755757989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4227639627277772</v>
+        <v>0.4219433920158829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4742667724089193</v>
+        <v>0.4769122434840868</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>303127</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>276917</v>
+        <v>274669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>335665</v>
+        <v>331330</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4263480546936095</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3894825577269697</v>
+        <v>0.3863206839631487</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4721114507057961</v>
+        <v>0.4660141683972437</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>448</v>
@@ -1551,19 +1551,19 @@
         <v>312421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>288807</v>
+        <v>289355</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>336308</v>
+        <v>336251</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4266718490188579</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3944226762408371</v>
+        <v>0.3951713249457653</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4592946492322289</v>
+        <v>0.4592167852154961</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>759</v>
@@ -1572,19 +1572,19 @@
         <v>615548</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>578307</v>
+        <v>575849</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>654793</v>
+        <v>654207</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4265123346935299</v>
+        <v>0.4265123346935298</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.40070832542576</v>
+        <v>0.399005135065432</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4537053528188786</v>
+        <v>0.4532986942089565</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>70555</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54645</v>
+        <v>54440</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89175</v>
+        <v>88576</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09923609421244932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07685870473995945</v>
+        <v>0.07656926150063537</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1254237915646538</v>
+        <v>0.1245812654980831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -1622,19 +1622,19 @@
         <v>82981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67850</v>
+        <v>69048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97440</v>
+        <v>98425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1133275492886265</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09266235954122672</v>
+        <v>0.09429806135918162</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1330734042703586</v>
+        <v>0.1344183606287602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>199</v>
@@ -1643,19 +1643,19 @@
         <v>153537</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>133229</v>
+        <v>132013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177503</v>
+        <v>177303</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1063855222853985</v>
+        <v>0.1063855222853984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09231402102797535</v>
+        <v>0.0914716952143433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1229912701528982</v>
+        <v>0.1228527421625516</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>14605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8166</v>
+        <v>7985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26408</v>
+        <v>25031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02054209168895873</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01148537078705402</v>
+        <v>0.01123055515125345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03714288798893558</v>
+        <v>0.03520611905059792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1693,19 +1693,19 @@
         <v>13590</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7990</v>
+        <v>8260</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22306</v>
+        <v>22623</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0185594245237947</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01091246622519486</v>
+        <v>0.01128019478715827</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0304628358464585</v>
+        <v>0.03089566077592439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1714,19 +1714,19 @@
         <v>28195</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17655</v>
+        <v>19420</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39865</v>
+        <v>41759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01953616744527277</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0122330793644313</v>
+        <v>0.01345623561006423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02762250711076479</v>
+        <v>0.02893486928986085</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>1508983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1441697</v>
+        <v>1448934</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1578819</v>
+        <v>1577094</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4310642116887816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4118431922835072</v>
+        <v>0.4139104830826788</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.451014186871157</v>
+        <v>0.4505212827353015</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1665</v>
@@ -1839,19 +1839,19 @@
         <v>1329613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1276328</v>
+        <v>1275903</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1383131</v>
+        <v>1384025</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3595627396774307</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3451531288314074</v>
+        <v>0.3450380714091093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3740353419569303</v>
+        <v>0.3742771294686026</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2922</v>
@@ -1860,19 +1860,19 @@
         <v>2838596</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2761778</v>
+        <v>2750943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2931270</v>
+        <v>2925084</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3943337765496332</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.383662365397814</v>
+        <v>0.3821572605082188</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4072079623168928</v>
+        <v>0.4063486949876901</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>1488604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1422655</v>
+        <v>1427621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1555179</v>
+        <v>1552909</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4252427096855834</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4064035164175903</v>
+        <v>0.4078221570134678</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4442608144304184</v>
+        <v>0.443612358596163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2521</v>
@@ -1910,19 +1910,19 @@
         <v>1690581</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1633971</v>
+        <v>1637591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1743282</v>
+        <v>1744793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4571781772801699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4418693212495067</v>
+        <v>0.4428480598529722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4714299390077275</v>
+        <v>0.4718384898040056</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4042</v>
@@ -1931,19 +1931,19 @@
         <v>3179185</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3096276</v>
+        <v>3093709</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3261538</v>
+        <v>3263838</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4416480169907969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4301304113559875</v>
+        <v>0.4297738349954346</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4530882984561766</v>
+        <v>0.453407921526017</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>423992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>386738</v>
+        <v>383561</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>467967</v>
+        <v>464938</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1211199657925497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1104775650800458</v>
+        <v>0.1095702737510341</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1336820318583768</v>
+        <v>0.1328166826842221</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>939</v>
@@ -1981,19 +1981,19 @@
         <v>562520</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>528949</v>
+        <v>529094</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>601192</v>
+        <v>603516</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1521202407909882</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1430418524795776</v>
+        <v>0.1430809907850918</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1625782544140325</v>
+        <v>0.1632067064696679</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1423</v>
@@ -2002,19 +2002,19 @@
         <v>986512</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>929932</v>
+        <v>929941</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1043729</v>
+        <v>1040568</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1370448629743189</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1291848920807271</v>
+        <v>0.1291861802069229</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1449934398569362</v>
+        <v>0.1445542218780738</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>79019</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62916</v>
+        <v>63662</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98481</v>
+        <v>98100</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02257311283308525</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01797279647486234</v>
+        <v>0.01818603528206298</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02813271968874204</v>
+        <v>0.02802378678779682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>175</v>
@@ -2052,19 +2052,19 @@
         <v>115147</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98193</v>
+        <v>100006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135763</v>
+        <v>136156</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03113884225141117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02655402517124941</v>
+        <v>0.02704436574234001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03671384704013038</v>
+        <v>0.03682013376043707</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>261</v>
@@ -2073,19 +2073,19 @@
         <v>194167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169378</v>
+        <v>172177</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218516</v>
+        <v>221416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02697334348525098</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02352978895082532</v>
+        <v>0.02391861568974773</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03035589047019294</v>
+        <v>0.03075883662109841</v>
       </c>
     </row>
     <row r="23">
